--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\My projects\Courses\QT_Analysis\website\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42041DD6-B4CD-4C74-84AB-8D5DF1D099F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094E62E-D025-49E1-B5F5-52F5C8CAA570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECS" sheetId="1" r:id="rId1"/>
     <sheet name="M-Psy" sheetId="2" r:id="rId2"/>
+    <sheet name="ფურცელი1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>Name/Surname</t>
   </si>
@@ -144,12 +145,78 @@
   <si>
     <t>January 25</t>
   </si>
+  <si>
+    <t>Arbolishvili Mariam</t>
+  </si>
+  <si>
+    <t>სტუდენტი</t>
+  </si>
+  <si>
+    <t>პირ. ნომერი</t>
+  </si>
+  <si>
+    <t>ზარიძე ცოტნე</t>
+  </si>
+  <si>
+    <t>მარქარიანი ლიანა</t>
+  </si>
+  <si>
+    <t>მუკნიაშვილი თამარ</t>
+  </si>
+  <si>
+    <t>ნიქაბაძე ანა</t>
+  </si>
+  <si>
+    <t>შავიშვილი ელენე</t>
+  </si>
+  <si>
+    <t>არბოლიშვილი მარიამ</t>
+  </si>
+  <si>
+    <t>ბეჟანიძე თეიმურაზ</t>
+  </si>
+  <si>
+    <t>ოგბაიძე ელენე</t>
+  </si>
+  <si>
+    <t>პაპიაშვილი ანა</t>
+  </si>
+  <si>
+    <t>პატარაია თამარი</t>
+  </si>
+  <si>
+    <t>ქენქაძე დავითი</t>
+  </si>
+  <si>
+    <t>შანიძე დაჩი</t>
+  </si>
+  <si>
+    <t>შაყულაშვილი ანანო</t>
+  </si>
+  <si>
+    <t>ჯიბუტი მარიამ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +242,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF3764A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -190,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,11 +278,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBEBEBE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBEBEBE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,6 +333,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ჩვეულებრივი" xfId="0" builtinId="0"/>
@@ -240,6 +362,4669 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="სურათი 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F94D48-F382-40E5-8F66-F51BF73CEBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="სურათი 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE64D16F-21A6-4DA1-A541-D7B72EB8EBE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2872740" y="182880"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="სურათი 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3101521-F500-4EBA-9461-EB3C67CE6C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="სურათი 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1664044-6B2D-4397-A6AE-D257BC9CEBBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="სურათი 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560551DB-E643-46B6-8434-20656CC05335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="სურათი 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77699F27-2D32-4F22-BD0E-F2D1D082CFAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="სურათი 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48222E01-E1EC-43A5-8AEE-5B41D2E57D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="სურათი 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C60FCE-011D-4550-A44F-F99F438FBA36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="სურათი 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1364C718-065F-4ADD-ADFF-9286C53AFE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="სურათი 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C8619B-272F-4909-B957-00513F23E4A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="სურათი 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207A2941-880F-4B48-B386-197713258325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="სურათი 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184B3327-AEE7-4758-895B-DA4117EF509C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="სურათი 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED854584-2E50-4CF3-9A5A-3FF36A9BD21B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="სურათი 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2E8F56-632A-4C54-9937-E31D4F52162A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="სურათი 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74641091-81B2-460A-98A8-7AD0C9B17404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="სურათი 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0290A59F-269E-4F6E-A525-5D98BE9C73BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="სურათი 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F38140A-5721-4C12-AF99-98B860FA0184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="სურათი 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB5EFF1-8AB2-409A-BDD0-57490E1E0B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="სურათი 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2933D951-5340-4FFA-98E4-BEA05B5A72BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="სურათი 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56B6C1B-1D7F-4DD8-9D6E-3C4AF008640C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="სურათი 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B4EEC4-117B-49DE-AD75-14EA0C55E2D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="სურათი 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D42072B-5EF8-4386-946B-39FCB34F1CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="სურათი 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4D0DA0-976E-4AC7-B6E1-E8894CD41207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="სურათი 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078B0729-5A98-4949-A23A-868E6393FE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="სურათი 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F3060B-7B70-4952-B4FC-E17C3F39792E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="სურათი 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2320E7AF-A0F8-4A79-A22A-7E4DE7ADA250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="სურათი 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D635B8A-C6EA-45DA-84A1-AF841017DE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="სურათი 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8E74AB-F8F0-48E3-9561-FF80CBF08BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="სურათი 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C057BE78-22B4-48C6-A45D-617590F05B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="სურათი 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAC5DCE-5B15-4C3B-A605-92FD4F07D5DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="სურათი 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203AE0A2-3508-4BFA-BE30-7CFEC4672CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="სურათი 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E913C84-B8D6-47BA-A7F7-2C441A288D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="სურათი 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227E5FAE-4470-4FC0-8AE5-3FE6174D6BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="სურათი 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6360746-2F7C-4021-BA4C-CAE958CDBFC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="სურათი 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FDDC17-F327-46A2-BEA3-9F5354E0E018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="სურათი 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E73B5-FEC5-4B4F-80F3-BF7195ED75B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="სურათი 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D754CB-502F-4936-B336-8913506E26CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="სურათი 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8BB4CD-62D1-469C-A3E8-4BACA89D48FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="სურათი 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02CE4CE-0271-45C2-AE9B-80CB128D422D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="სურათი 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003DAE4F-8E8E-4227-BA15-363AB4B5F083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="სურათი 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3B2878-D201-4739-99CA-7B04986E5113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="სურათი 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2DDC19-5545-4187-9D28-24A3B002F749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="სურათი 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D962CB-D530-4C8B-A505-15FA2042577F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="სურათი 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BCDD90-1486-45C5-B46D-A8F2D2A3442F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="სურათი 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76961957-BDE3-4796-9A0C-1280A50050B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="სურათი 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB1F89E-D512-4308-B5B6-E5118FE558EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="სურათი 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E436D8E5-F1C5-4A41-9AEF-A3AC44DE00F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="სურათი 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C2D9B1-5647-4BB7-B457-7423D25D8E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="სურათი 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD9599F-D6C1-48AD-AB81-2D607C9BEBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="სურათი 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFC2F95-3E63-400B-904A-8610911A0033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="სურათი 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D288896-7F60-453D-BC92-6757A89A10E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="სურათი 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C123A84F-8C4C-49C6-BB99-86FEA61CFC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="სურათი 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183BEC36-69A7-4A50-AFC7-5297A2A84AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="სურათი 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1459AFA-2AB9-4AD7-BD48-AE852439BDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="სურათი 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F876BC2-8C23-4138-ACD0-8793C85D2FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="სურათი 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D3CB5-7BF6-40E4-A81D-410980880594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="სურათი 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961AF4E9-0424-4954-9221-36C6293A2EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="სურათი 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E1A89C-6D73-4C6A-9F58-D100F84C93EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="სურათი 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A47158-1560-4BB8-BAAA-115E7441198C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="სურათი 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F43C23-00D1-4009-ACA9-59404B683947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="სურათი 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122DB68C-97A8-4F4C-A68B-E359574C7B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="სურათი 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362A0AC0-CDBD-40BB-96C8-474E1AF2EDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="სურათი 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F76239B-AEE9-43CC-BA96-9A1DD1A617A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="სურათი 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E1BA58-2B5B-4728-81CE-D4791C4D0135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="სურათი 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B5A717-EEA5-42A5-A6BA-95F5FF82D3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="სურათი 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE46D4F-80FE-4303-8BCB-ED8B8EAB4DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="სურათი 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899C93B0-B761-41C9-A5B9-806DACA55246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="სურათი 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2697C095-9857-4554-B274-104A52731256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="სურათი 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2271429-ABCC-436D-AB42-28066AE6DE58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="სურათი 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0592501-CA57-44DB-BB00-63D7AE3FED30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="სურათი 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848CECC5-4A41-434C-B2A8-301419A05E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="სურათი 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE86092F-69E7-499A-8575-206E947BE151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="სურათი 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E998BD-0B77-4698-BC45-2604A6B73D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="სურათი 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D32A508-85C7-4886-9176-B528EE70D7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="სურათი 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF01C4F-950C-48A0-97E7-A358799C2F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="სურათი 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDEB3EE-9F3C-4BED-9AB8-B06977F4B19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="სურათი 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEA2274-132F-4C29-BEFF-922E6E2CB277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="სურათი 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510249A9-9784-41D0-9E3D-54BCA09E121A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="სურათი 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6AAA87-7736-41E9-9967-314B93B934C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="სურათი 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAAF4FF-DD7F-444E-BD60-05BB55C71989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="სურათი 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9F3F8F-FC53-401B-B3A8-387FB9C9B945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="სურათი 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D53E200-9175-40CE-894B-FF8617E0B1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="სურათი 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750C450B-A465-40E6-8C1E-A147A1BD031F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="190500"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,9 +5326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="14.4"/>
@@ -626,7 +5411,9 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -643,7 +5430,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="3">
         <f>ROUND((COUNTA(D2:R2)/15)*10, 0)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -656,9 +5443,13 @@
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -673,8 +5464,8 @@
       <c r="R3" s="2"/>
       <c r="S3" s="9"/>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T15" si="0">ROUND((COUNTA(D3:R3)/15)*10, 0)+1</f>
-        <v>1</v>
+        <f t="shared" ref="T3:T14" si="0">ROUND((COUNTA(D3:R3)/15)*10, 0)+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -687,7 +5478,9 @@
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -704,7 +5497,7 @@
       <c r="S4" s="9"/>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -746,7 +5539,9 @@
         <v>24</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -764,7 +5559,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="3">
         <f>ROUND((COUNTA(D6:S6)/15)*10, 0)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -775,7 +5570,9 @@
         <v>24</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -793,7 +5590,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="3">
         <f t="shared" ref="T7:T10" si="1">ROUND((COUNTA(D7:S7)/15)*10, 0)+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -804,7 +5601,9 @@
         <v>24</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -821,7 +5620,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -861,7 +5660,9 @@
         <v>24</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -879,7 +5680,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -892,8 +5693,15 @@
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -909,7 +5717,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -922,9 +5730,15 @@
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -940,7 +5754,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -953,9 +5767,15 @@
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -971,7 +5791,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1005,7 +5825,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1"/>
+    <row r="15" spans="1:20" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1389,4 +6219,349 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A80206E-2E7F-4606-9CC9-95077EC5FE87}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>0.77096171159895222</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
+      <c r="A3" s="11">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0.6579722181485389</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="11">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0.44172618651469264</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>0.49518357145178837</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>0.35422746934378468</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0.64458501459749973</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
+      <c r="A8" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>0.96838751367875786</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>0.80406223859589565</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>0.33112521430892883</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>0.66037852095758132</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>0.41420079668752474</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
+      <c r="A13" s="11">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>0.49994635355650197</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
+      <c r="A14" s="11">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>0.64574815143370268</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>0.44268736415380894</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
+    <sortCondition ref="E2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>